--- a/time_sheet/timeSheet.xlsx
+++ b/time_sheet/timeSheet.xlsx
@@ -65,15 +65,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -95,6 +97,7 @@
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,11 +141,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -167,13 +180,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K151" activeCellId="0" sqref="K151"/>
+      <selection pane="topLeft" activeCell="E149" activeCellId="0" sqref="E149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="16.43"/>
   </cols>
@@ -3191,14 +3204,14 @@
         <v>14</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F144" s="0" t="n">
         <f aca="false">D144*E144</f>
-        <v>4500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3559,33 +3572,24 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D162" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" s="0" t="n">
-        <v>1500</v>
-      </c>
+      <c r="A162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="2" t="n">
+        <f aca="false">SUM(D2:D161)</f>
+        <v>74.5</v>
+      </c>
+      <c r="E162" s="3"/>
       <c r="F162" s="0" t="n">
-        <f aca="false">D162*E162</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="0" t="n">
         <f aca="false">SUM(F2:F161)</f>
-        <v>110250</v>
+        <v>111750</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A162:C162"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/time_sheet/timeSheet.xlsx
+++ b/time_sheet/timeSheet.xlsx
@@ -182,11 +182,11 @@
   </sheetPr>
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E149" activeCellId="0" sqref="E149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F144" activeCellId="0" sqref="F144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="16.43"/>
   </cols>
@@ -3225,14 +3225,14 @@
         <v>15</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F145" s="0" t="n">
         <f aca="false">D145*E145</f>
-        <v>0</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,12 +3579,12 @@
       <c r="C162" s="1"/>
       <c r="D162" s="2" t="n">
         <f aca="false">SUM(D2:D161)</f>
-        <v>74.5</v>
+        <v>79.5</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="0" t="n">
         <f aca="false">SUM(F2:F161)</f>
-        <v>111750</v>
+        <v>119250</v>
       </c>
     </row>
   </sheetData>

--- a/time_sheet/timeSheet.xlsx
+++ b/time_sheet/timeSheet.xlsx
@@ -182,11 +182,11 @@
   </sheetPr>
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F144" activeCellId="0" sqref="F144"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D147" activeCellId="0" sqref="D147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="16.43"/>
   </cols>
@@ -3246,14 +3246,14 @@
         <v>16</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F146" s="0" t="n">
         <f aca="false">D146*E146</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,12 +3579,12 @@
       <c r="C162" s="1"/>
       <c r="D162" s="2" t="n">
         <f aca="false">SUM(D2:D161)</f>
-        <v>79.5</v>
+        <v>83.5</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="0" t="n">
         <f aca="false">SUM(F2:F161)</f>
-        <v>119250</v>
+        <v>125250</v>
       </c>
     </row>
   </sheetData>

--- a/time_sheet/timeSheet.xlsx
+++ b/time_sheet/timeSheet.xlsx
@@ -182,11 +182,11 @@
   </sheetPr>
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D147" activeCellId="0" sqref="D147"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="16.43"/>
   </cols>
@@ -768,14 +768,14 @@
         <v>19</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F28" s="0" t="n">
         <f aca="false">D28*E28</f>
-        <v>2250</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,14 +3267,14 @@
         <v>17</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F147" s="0" t="n">
         <f aca="false">D147*E147</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,14 +3288,14 @@
         <v>18</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F148" s="0" t="n">
         <f aca="false">D148*E148</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,14 +3309,14 @@
         <v>19</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F149" s="0" t="n">
         <f aca="false">D149*E149</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,14 +3330,14 @@
         <v>20</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F150" s="0" t="n">
         <f aca="false">D150*E150</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,14 +3351,14 @@
         <v>21</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F151" s="0" t="n">
         <f aca="false">D151*E151</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,12 +3579,12 @@
       <c r="C162" s="1"/>
       <c r="D162" s="2" t="n">
         <f aca="false">SUM(D2:D161)</f>
-        <v>83.5</v>
+        <v>98</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="0" t="n">
         <f aca="false">SUM(F2:F161)</f>
-        <v>125250</v>
+        <v>147000</v>
       </c>
     </row>
   </sheetData>

--- a/time_sheet/timeSheet.xlsx
+++ b/time_sheet/timeSheet.xlsx
@@ -182,11 +182,11 @@
   </sheetPr>
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="16.43"/>
   </cols>
@@ -3393,14 +3393,14 @@
         <v>23</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F153" s="0" t="n">
         <f aca="false">D153*E153</f>
-        <v>0</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,14 +3414,14 @@
         <v>24</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F154" s="0" t="n">
         <f aca="false">D154*E154</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,12 +3579,12 @@
       <c r="C162" s="1"/>
       <c r="D162" s="2" t="n">
         <f aca="false">SUM(D2:D161)</f>
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="0" t="n">
         <f aca="false">SUM(F2:F161)</f>
-        <v>147000</v>
+        <v>157500</v>
       </c>
     </row>
   </sheetData>
